--- a/biology/Botanique/Asclepiadaceae/Asclepiadaceae.xlsx
+++ b/biology/Botanique/Asclepiadaceae/Asclepiadaceae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Asclepiadaceae sont une famille de plantes dicotylédones, regroupant 2 000 espèces réparties en près de 250 genres. Cette famille n'est plus valide dans la classification phylogénétique. Elle est considérée au sein de la famille des Apocynaceae comme la sous-famille des Asclepiadoideae.
 Il s'agit d'une famille cosmopolite composée en majorité de plantes herbacées, de lianes, d'arbustes, mais aussi quelques arbres, parfois à l'aspect cactoïde. On trouve ces espèces dans les régions subtropicales à tropicales, avec quelques rares espèces en régions tempérées.
@@ -515,7 +527,9 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le nom vient du genre type Asclepias, que Carl von Linné nomma d’après Asclépios (du grec Ἀσκληπιός / Asklêpiós, en latin Aesculapius / Esculape), dieu grec de la médecine, cette plante possédant de nombreuses vertus en phytothérapie.
 </t>
@@ -546,9 +560,11 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La classification phylogénétique APG (1998)[1], la classification phylogénétique APG II (2003)[2] et la classification phylogénétique APG III (2009)[3] incorporent cette famille aux Apocynaceae, sous-famille des Asclepiadoideae.
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La classification phylogénétique APG (1998), la classification phylogénétique APG II (2003) et la classification phylogénétique APG III (2009) incorporent cette famille aux Apocynaceae, sous-famille des Asclepiadoideae.
 </t>
         </is>
       </c>
@@ -577,7 +593,9 @@
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Absolmsia
